--- a/model_tournament.xlsx
+++ b/model_tournament.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frmar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frmar\OneDrive\Desktop\GitHub\Codenames-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49987555-E00D-4DA6-B8DB-CA6362E6A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CDE4D-293E-46C0-ABD9-30512A2BE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{615DD3B7-EB5E-4E10-8805-2E28E13C8660}"/>
   </bookViews>
@@ -157,6 +157,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}" name="Tabella2" displayName="Tabella2" ref="A1:K111" totalsRowShown="0">
+  <autoFilter ref="A1:K111" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{17327774-A16E-4B96-9866-B439E1797EEF}" name="lang"/>
+    <tableColumn id="2" xr3:uid="{DDE4F16B-D551-47AC-8E34-C7DEA4CBE215}" name="n_cards"/>
+    <tableColumn id="3" xr3:uid="{EAF20932-98DA-4261-AAF1-A69FC0709AC4}" name="coloured_cards"/>
+    <tableColumn id="4" xr3:uid="{7EAD8866-C78B-457D-97D4-F80771DCE5DA}" name="k_cards"/>
+    <tableColumn id="5" xr3:uid="{C6D760AC-5097-4C2F-BD72-8F82D2C145D1}" name="verbose"/>
+    <tableColumn id="6" xr3:uid="{C20B76B0-613F-4338-B575-DDECD9D8F382}" name="red_model"/>
+    <tableColumn id="7" xr3:uid="{7A005FD8-C08E-40F3-802A-246136D07D0B}" name="red_cot"/>
+    <tableColumn id="8" xr3:uid="{6F88C084-458F-4E69-9EF6-66CC9099287C}" name="blue_model"/>
+    <tableColumn id="9" xr3:uid="{B615B768-483C-461D-8B6D-7F9AC1B3B3F4}" name="blue_cot"/>
+    <tableColumn id="10" xr3:uid="{1DAD7237-8FAF-4AFD-80D1-8E14692FDC83}" name="red_agents"/>
+    <tableColumn id="11" xr3:uid="{737FC0ED-519F-40D0-A899-EE66E6CFEC0A}" name="blue_agents"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,23 +498,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4545119-7FBF-4863-8517-0D4969A0375B}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,5 +1433,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/model_tournament.xlsx
+++ b/model_tournament.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frmar\OneDrive\Desktop\GitHub\Codenames-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CDE4D-293E-46C0-ABD9-30512A2BE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE01038-D7AB-4E7E-B469-55986B5C5C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{615DD3B7-EB5E-4E10-8805-2E28E13C8660}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{615DD3B7-EB5E-4E10-8805-2E28E13C8660}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="29">
   <si>
     <t>lang</t>
   </si>
@@ -103,6 +103,27 @@
   <si>
     <t>llama-3.2-90b-vision</t>
   </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>avg_words_2g</t>
+  </si>
+  <si>
+    <t>avg_word_g</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
 </sst>
 </file>
 
@@ -140,13 +161,65 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -160,20 +233,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}" name="Tabella2" displayName="Tabella2" ref="A1:K111" totalsRowShown="0">
-  <autoFilter ref="A1:K111" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17327774-A16E-4B96-9866-B439E1797EEF}" name="lang"/>
-    <tableColumn id="2" xr3:uid="{DDE4F16B-D551-47AC-8E34-C7DEA4CBE215}" name="n_cards"/>
-    <tableColumn id="3" xr3:uid="{EAF20932-98DA-4261-AAF1-A69FC0709AC4}" name="coloured_cards"/>
-    <tableColumn id="4" xr3:uid="{7EAD8866-C78B-457D-97D4-F80771DCE5DA}" name="k_cards"/>
-    <tableColumn id="5" xr3:uid="{C6D760AC-5097-4C2F-BD72-8F82D2C145D1}" name="verbose"/>
-    <tableColumn id="6" xr3:uid="{C20B76B0-613F-4338-B575-DDECD9D8F382}" name="red_model"/>
-    <tableColumn id="7" xr3:uid="{7A005FD8-C08E-40F3-802A-246136D07D0B}" name="red_cot"/>
-    <tableColumn id="8" xr3:uid="{6F88C084-458F-4E69-9EF6-66CC9099287C}" name="blue_model"/>
-    <tableColumn id="9" xr3:uid="{B615B768-483C-461D-8B6D-7F9AC1B3B3F4}" name="blue_cot"/>
-    <tableColumn id="10" xr3:uid="{1DAD7237-8FAF-4AFD-80D1-8E14692FDC83}" name="red_agents"/>
-    <tableColumn id="11" xr3:uid="{737FC0ED-519F-40D0-A899-EE66E6CFEC0A}" name="blue_agents"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}" name="Tabella2" displayName="Tabella2" ref="A1:O111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:O111" xr:uid="{4CF36749-C499-4D6F-B301-7D49BCCBFB51}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{17327774-A16E-4B96-9866-B439E1797EEF}" name="lang" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DDE4F16B-D551-47AC-8E34-C7DEA4CBE215}" name="n_cards" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EAF20932-98DA-4261-AAF1-A69FC0709AC4}" name="coloured_cards" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7EAD8866-C78B-457D-97D4-F80771DCE5DA}" name="k_cards" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{C6D760AC-5097-4C2F-BD72-8F82D2C145D1}" name="verbose" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C20B76B0-613F-4338-B575-DDECD9D8F382}" name="red_model" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{7A005FD8-C08E-40F3-802A-246136D07D0B}" name="red_cot" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6F88C084-458F-4E69-9EF6-66CC9099287C}" name="blue_model" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B615B768-483C-461D-8B6D-7F9AC1B3B3F4}" name="blue_cot" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{1DAD7237-8FAF-4AFD-80D1-8E14692FDC83}" name="red_agents" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{737FC0ED-519F-40D0-A899-EE66E6CFEC0A}" name="blue_agents" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5F4117EC-7EB2-4CF4-9E50-6CDFC021D9EA}" name="winner" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{0E149BE0-35A5-4A2E-9693-D59EFF66C62A}" name="avg_words_2g" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{05F0D180-EC92-44A7-9107-09136AB809FA}" name="avg_word_g" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{05257AA6-60D3-4938-BA48-F00258AE5D24}" name="reason" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,938 +573,3921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4545119-7FBF-4863-8517-0D4969A0375B}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="F2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
+      <c r="I28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
+      <c r="I29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
+      <c r="I32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
+      <c r="I33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+      <c r="I34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
+      <c r="I35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
+      <c r="I36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
+      <c r="I37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
+      <c r="I38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
+      <c r="I39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
+      <c r="I40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
+      <c r="I41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
+      <c r="I42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
+      <c r="I43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
+      <c r="I44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
+      <c r="I45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
+      <c r="I46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
+      <c r="I47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" t="s">
+      <c r="I48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" t="s">
+      <c r="I49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
+      <c r="I50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" t="s">
+      <c r="I51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" t="s">
+      <c r="I52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H53" t="s">
+      <c r="K52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
+      <c r="I53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F55" t="s">
+      <c r="I54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
+      <c r="I55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
+      <c r="I56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F58" t="s">
+      <c r="I57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F59" t="s">
+      <c r="I58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F60" t="s">
+      <c r="I59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F61" t="s">
+      <c r="I60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F62" t="s">
+      <c r="I61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F63" t="s">
+      <c r="I62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F64" t="s">
+      <c r="I63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
+      <c r="I64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
+      <c r="I65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
+      <c r="I66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
+      <c r="I67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
+      <c r="I68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
+      <c r="I69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
+      <c r="I70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
+      <c r="I71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
+      <c r="I72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
+      <c r="I73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
+      <c r="I74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
+      <c r="I75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
+      <c r="I76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
+      <c r="I77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K77" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
+      <c r="I78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H79" t="s">
+      <c r="K78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
+      <c r="I79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H80" t="s">
+      <c r="K79" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
+      <c r="I80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H81" t="s">
+      <c r="K80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
+      <c r="I81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" t="s">
+      <c r="I82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" t="s">
+      <c r="I83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H84" t="s">
+      <c r="K83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="1">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" t="s">
+      <c r="I84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H85" t="s">
+      <c r="K84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="1">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
+      <c r="I85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H86" t="s">
+      <c r="K85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1">
+        <v>25</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" t="s">
+      <c r="I86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K86" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1">
+        <v>25</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
+      <c r="I87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K87" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
+      <c r="I88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
+      <c r="I89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="1">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" t="s">
+      <c r="I90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="1">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" t="s">
+      <c r="I91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="1">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" t="s">
+      <c r="I92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="1">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" t="s">
+      <c r="I93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="1">
+        <v>25</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" t="s">
+      <c r="I94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="1">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" t="s">
+      <c r="I95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H96" t="s">
+      <c r="K95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="1">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" t="s">
+      <c r="I96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H97" t="s">
+      <c r="K96" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" t="s">
+      <c r="I97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H98" t="s">
+      <c r="K97" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" t="s">
+      <c r="I98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H99" t="s">
+      <c r="K98" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="1">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" t="s">
+      <c r="I99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H100" t="s">
+      <c r="K99" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" t="s">
+      <c r="I100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H101" t="s">
+      <c r="K100" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" t="s">
+      <c r="I101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H102" t="s">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="1">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" t="s">
+      <c r="I102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H103" t="s">
+      <c r="K102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="1">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" t="s">
+      <c r="I103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H104" t="s">
+      <c r="K103" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="1">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" t="s">
+      <c r="I104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H105" t="s">
+      <c r="K104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="1">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" t="s">
+      <c r="I105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H106" t="s">
+      <c r="K105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="1">
+        <v>25</v>
+      </c>
+      <c r="C106" s="1">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" t="s">
+      <c r="I106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H107" t="s">
+      <c r="K106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="1">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" t="s">
+      <c r="I107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K107" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="1">
+        <v>25</v>
+      </c>
+      <c r="C108" s="1">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" t="s">
+      <c r="I108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H109" t="s">
+      <c r="K108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="1">
+        <v>25</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
+      <c r="I109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H110" t="s">
+      <c r="K109" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="1">
+        <v>25</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" t="s">
+      <c r="I110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H111" t="s">
+      <c r="K110" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="1">
+        <v>25</v>
+      </c>
+      <c r="C111" s="1">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>20</v>
       </c>
     </row>
